--- a/company_list.xlsx
+++ b/company_list.xlsx
@@ -11,46 +11,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Company Name</t>
   </si>
   <si>
+    <t>Booth</t>
+  </si>
+  <si>
     <t>4B Components</t>
   </si>
   <si>
+    <t>A927</t>
+  </si>
+  <si>
     <t>A.C. Legg, Inc.</t>
   </si>
   <si>
+    <t>BC40101</t>
+  </si>
+  <si>
     <t>A.W.P. srl</t>
   </si>
   <si>
+    <t>A621</t>
+  </si>
+  <si>
     <t>A/B Technologies (ABT)</t>
   </si>
   <si>
+    <t>A1832</t>
+  </si>
+  <si>
     <t>AAFCO</t>
   </si>
   <si>
+    <t>A1151</t>
+  </si>
+  <si>
     <t>AAT Freezing</t>
   </si>
   <si>
+    <t>C42131</t>
+  </si>
+  <si>
     <t>AB Vista Inc.</t>
   </si>
   <si>
+    <t>A841</t>
+  </si>
+  <si>
     <t>ABB</t>
   </si>
   <si>
+    <t>B37027</t>
+  </si>
+  <si>
     <t>Abel</t>
   </si>
   <si>
+    <t>A2329</t>
+  </si>
+  <si>
     <t>ABIQUIFI</t>
+  </si>
+  <si>
+    <t>B31011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -60,6 +93,11 @@
     <font>
       <b/>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -91,14 +129,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -321,55 +362,88 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
